--- a/Chinglish-English/Chinglish-English.xlsx
+++ b/Chinglish-English/Chinglish-English.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Chinglish-English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C32F75-1FA9-4E65-A3AA-FDB30DE736FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E8E10-6D93-451E-82B5-A518AF280BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>English</t>
   </si>
@@ -62,19 +62,31 @@
   </si>
   <si>
     <t>Are we really having this conversation?</t>
+  </si>
+  <si>
+    <t>Who could’ve considered such a possibility?</t>
+  </si>
+  <si>
+    <t>could have 在这里表示“竟然”的意思</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -123,6 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,15 +418,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,10 +473,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/Chinglish-English/Chinglish-English.xlsx
+++ b/Chinglish-English/Chinglish-English.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Private Files\English Note\Chinglish-English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E8E10-6D93-451E-82B5-A518AF280BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D3F87-4692-40BF-AAD1-4E51DA6EB8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +87,13 @@
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -135,7 +142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +429,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,14 +439,14 @@
     <col min="3" max="3" width="32.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -474,7 +484,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2"/>
